--- a/04_Testprotokoll.xlsx
+++ b/04_Testprotokoll.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karma\Projects\yihaaaaa.biz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5EA401-2423-4759-8547-62EBCB13F11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D92474-25BD-4A35-A2E6-716849FD1316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="-30" windowWidth="19200" windowHeight="9970"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testprotokoll" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Testprotokoll</t>
   </si>
@@ -46,15 +46,22 @@
   <si>
     <t>Kurzbeschreibung</t>
   </si>
+  <si>
+    <t>Funktioniert die Verbindung zu AccessPoint (AP001)
+mit einem mobilen/Gerät?</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +77,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,16 +124,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -414,45 +456,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04_Testprotokoll.xlsx
+++ b/04_Testprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karma\Projects\yihaaaaa.biz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kike\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D92474-25BD-4A35-A2E6-716849FD1316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA71C8D-1727-4F93-8B21-15295135D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testprotokoll" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Testprotokoll</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>ü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ping anderer Laptop </t>
+  </si>
+  <si>
+    <t>Ping google.ch</t>
+  </si>
+  <si>
+    <t>/Renew</t>
   </si>
 </sst>
 </file>
@@ -131,9 +140,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -141,6 +147,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,30 +466,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -489,67 +498,94 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
